--- a/lib/data/ListaNominas.xlsx
+++ b/lib/data/ListaNominas.xlsx
@@ -399,9 +399,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -953,7 +953,7 @@
         <v>15.823.949-3</v>
       </c>
       <c r="B9" t="str">
-        <v>Luis Jonathan Diaz Mattus</v>
+        <v>Luis con apellido</v>
       </c>
       <c r="C9" t="str">
         <v>ldiaz@netaxion.net</v>
@@ -961,14 +961,14 @@
       <c r="D9" t="str">
         <v>996957401</v>
       </c>
-      <c r="E9">
-        <v>1090083</v>
+      <c r="E9" t="str">
+        <v>10000000000</v>
       </c>
       <c r="F9">
-        <v>1090083</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1090083</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -985,14 +985,14 @@
       <c r="L9">
         <v>13</v>
       </c>
-      <c r="M9">
-        <v>2023</v>
+      <c r="M9" t="str">
+        <v>2.023</v>
       </c>
       <c r="N9">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="O9" t="str">
-        <v>Enseñanza Media</v>
+        <v>Enseñanza aa</v>
       </c>
       <c r="P9" t="str">
         <v>Netaxion Chile SpA</v>
@@ -1018,84 +1018,84 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>13.530.610-0</v>
+        <v>17.917.667-k</v>
       </c>
       <c r="B10" t="str">
-        <v>FRANCISCO JAVIER MUÑOZ VALDEBENITO</v>
+        <v>Nicole Del Carmen Altamirano Reyes</v>
       </c>
       <c r="C10" t="str">
-        <v>moxini2013@gmail.com</v>
+        <v>naltamirano@netaxion.net</v>
       </c>
       <c r="D10" t="str">
-        <v>936255559</v>
+        <v>933319616</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10" t="str">
-        <v>FRANCO MUÑOZ QUILODRAN</v>
+        <v>Tomas Gomez Altamirano</v>
       </c>
       <c r="J10" t="str">
-        <v>23.049.332-4</v>
+        <v>25.879.109-k</v>
       </c>
       <c r="K10" t="str">
         <v>Hijo(a)</v>
       </c>
       <c r="L10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>2023</v>
+        <v>6</v>
+      </c>
+      <c r="M10" t="str">
+        <v>2.023</v>
       </c>
       <c r="N10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O10" t="str">
         <v>Enseñanza Básica</v>
       </c>
       <c r="P10" t="str">
-        <v>ARTICULO DE SEGURIDAD WILUG LTDA</v>
+        <v>Netaxion Chile SpA</v>
       </c>
       <c r="Q10" t="str">
-        <v>79.894.400-2</v>
+        <v>76.322.146-6</v>
       </c>
       <c r="R10" t="str">
-        <v>Los Bronces</v>
+        <v>Santiago</v>
       </c>
       <c r="S10" t="str">
-        <v>12301371</v>
+        <v>12300251</v>
       </c>
       <c r="T10" t="str">
-        <v>PAOLA SANTANDER</v>
+        <v>Cindy Reyes</v>
       </c>
       <c r="U10" t="str">
-        <v>psantander@wilug.cl</v>
+        <v>creyes@netaxion.net</v>
       </c>
       <c r="V10" t="str">
-        <v>999642062</v>
+        <v>958747438</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>17.917.667-k</v>
+        <v>15.823.949-3</v>
       </c>
       <c r="B11" t="str">
-        <v>Nicole Del Carmen Altamirano Reyes</v>
+        <v>Luis Jonathan Diaz Mattus</v>
       </c>
       <c r="C11" t="str">
-        <v>naltamirano@netaxion.net</v>
+        <v>ldiaz@netaxion.net</v>
       </c>
       <c r="D11" t="str">
-        <v>933319616</v>
+        <v>996957401</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1107,28 +1107,28 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="str">
-        <v>Tomas Gomez Altamirano</v>
+        <v>Emilia Paz Diaz Fuentes</v>
       </c>
       <c r="J11" t="str">
-        <v>25.879.109-k</v>
+        <v>23.357.738-3</v>
       </c>
       <c r="K11" t="str">
         <v>Hijo(a)</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M11" t="str">
         <v>2.023</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11" t="str">
-        <v>Enseñanza Básica</v>
+        <v>Enseñanza Media</v>
       </c>
       <c r="P11" t="str">
         <v>Netaxion Chile SpA</v>
@@ -1137,7 +1137,7 @@
         <v>76.322.146-6</v>
       </c>
       <c r="R11" t="str">
-        <v>Santiago</v>
+        <v>Los Bronces</v>
       </c>
       <c r="S11" t="str">
         <v>12300251</v>
@@ -1150,147 +1150,11 @@
       </c>
       <c r="V11" t="str">
         <v>958747438</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>15.823.949-3</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Luis Jonathan Diaz Mattus</v>
-      </c>
-      <c r="C12" t="str">
-        <v>ldiaz@netaxion.net</v>
-      </c>
-      <c r="D12" t="str">
-        <v>996957401</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12" t="str">
-        <v>Emilia Paz Diaz Fuentes</v>
-      </c>
-      <c r="J12" t="str">
-        <v>23.357.738-3</v>
-      </c>
-      <c r="K12" t="str">
-        <v>Hijo(a)</v>
-      </c>
-      <c r="L12">
-        <v>13</v>
-      </c>
-      <c r="M12" t="str">
-        <v>2.023</v>
-      </c>
-      <c r="N12">
-        <v>6</v>
-      </c>
-      <c r="O12" t="str">
-        <v>Enseñanza Media</v>
-      </c>
-      <c r="P12" t="str">
-        <v>Netaxion Chile SpA</v>
-      </c>
-      <c r="Q12" t="str">
-        <v>76.322.146-6</v>
-      </c>
-      <c r="R12" t="str">
-        <v>Los Bronces</v>
-      </c>
-      <c r="S12" t="str">
-        <v>12300251</v>
-      </c>
-      <c r="T12" t="str">
-        <v>Cindy Reyes</v>
-      </c>
-      <c r="U12" t="str">
-        <v>creyes@netaxion.net</v>
-      </c>
-      <c r="V12" t="str">
-        <v>958747438</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>13.530.610-0</v>
-      </c>
-      <c r="B13" t="str">
-        <v>FRANCISCO JAVIER MUÑOZ VALDEBENITO</v>
-      </c>
-      <c r="C13" t="str">
-        <v>moxini2013@gmail.com</v>
-      </c>
-      <c r="D13" t="str">
-        <v>936255559</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13" t="str">
-        <v>FRANCO MUÑOZ QUILODRAN</v>
-      </c>
-      <c r="J13" t="str">
-        <v>23.049.332-4</v>
-      </c>
-      <c r="K13" t="str">
-        <v>Hijo(a)</v>
-      </c>
-      <c r="L13">
-        <v>14</v>
-      </c>
-      <c r="M13" t="str">
-        <v>2.023</v>
-      </c>
-      <c r="N13">
-        <v>6</v>
-      </c>
-      <c r="O13" t="str">
-        <v>Enseñanza Básica</v>
-      </c>
-      <c r="P13" t="str">
-        <v>ARTICULO DE SEGURIDAD WILUG LTDA</v>
-      </c>
-      <c r="Q13" t="str">
-        <v>79.894.400-2</v>
-      </c>
-      <c r="R13" t="str">
-        <v>Los Bronces</v>
-      </c>
-      <c r="S13" t="str">
-        <v>12301371</v>
-      </c>
-      <c r="T13" t="str">
-        <v>PAOLA SANTANDER</v>
-      </c>
-      <c r="U13" t="str">
-        <v>psantander@wilug.cl</v>
-      </c>
-      <c r="V13" t="str">
-        <v>999642062</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:V13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V11"/>
   </ignoredErrors>
 </worksheet>
 </file>